--- a/bolsa.xlsx
+++ b/bolsa.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fernando\Documents\Insper\3° Semestre\Ciencia dos Dados\Projeto 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fernando\Documents\Insper\3° Semestre\Ciencia dos Dados\C_Dados_Projeto1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F3C9CED-43A3-4D88-BB09-A4D2F356E196}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0142C1B4-6049-449A-9AD2-EC62B5622C23}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -2161,13 +2161,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A302" sqref="A302"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" customWidth="1"/>
     <col min="2" max="2" width="104.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4588,7 +4587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A202" sqref="A202"/>
     </sheetView>
   </sheetViews>
